--- a/02. 项目计划和工时/Yaye Project Plan Phase I_20191209.xlsx
+++ b/02. 项目计划和工时/Yaye Project Plan Phase I_20191209.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhoulinux/OneDrive/NetSuite/projects/Implementation/Yaye/02. 项目计划和工时/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9ce9b1e7335ee45f/NetSuite/projects/Implementation/Yaye/02. 项目计划和工时/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="382" documentId="11_87365CD1ABBD722C341AF6ECE58975A63A0752DF" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{DDEFBA05-113C-5A44-B09F-E0332F8461BB}"/>
+  <xr:revisionPtr revIDLastSave="388" documentId="11_87365CD1ABBD722C341AF6ECE58975A63A0752DF" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{9F280CA1-FDFE-CA41-AFAF-0A4778906321}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -233,18 +233,9 @@
     <t>**Go-Live/系统上线</t>
   </si>
   <si>
-    <t>Project Closure/项目第一期关闭</t>
-  </si>
-  <si>
     <t>Phase II</t>
   </si>
   <si>
-    <t>Phase II Implementation Preparation/项目二期准备</t>
-  </si>
-  <si>
-    <t>PhaseII Implementation/项目二期实施</t>
-  </si>
-  <si>
     <t>备注：</t>
   </si>
   <si>
@@ -569,12 +560,6 @@
     <t>单据补录入/导入（2/1~2/29)</t>
   </si>
   <si>
-    <t>雅耶和其他4家贸易公司上线</t>
-  </si>
-  <si>
-    <t>商舟和4家贸易公司上线</t>
-  </si>
-  <si>
     <t>**Project Handover/商舟和4家公司交付及签字</t>
   </si>
   <si>
@@ -594,6 +579,21 @@
   </si>
   <si>
     <t>**Project Handover/雅耶和其他4家公司交付及签字</t>
+  </si>
+  <si>
+    <t>商舟、朗探、鹏侯、杭州雅耶上线</t>
+  </si>
+  <si>
+    <t>雅耶国际贸易、客尊、悦文高远、朵邦、展宝上线</t>
+  </si>
+  <si>
+    <t>Project Closure/项目第一阶段关闭</t>
+  </si>
+  <si>
+    <t>Phase II Implementation Preparation/项目第二阶段准备</t>
+  </si>
+  <si>
+    <t>PhaseII Implementation/项目第二阶段实施</t>
   </si>
 </sst>
 </file>
@@ -601,7 +601,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="d/mm/yy;@"/>
+    <numFmt numFmtId="164" formatCode="d/mm/yy;@"/>
   </numFmts>
   <fonts count="12" x14ac:knownFonts="1">
     <font>
@@ -616,12 +616,14 @@
       <sz val="9"/>
       <color theme="8" tint="-0.499984740745262"/>
       <name val="Microsoft YaHei"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="8"/>
       <color theme="8" tint="-0.499984740745262"/>
       <name val="Microsoft YaHei"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -629,6 +631,7 @@
       <sz val="8"/>
       <color theme="8" tint="-0.499984740745262"/>
       <name val="Microsoft YaHei"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -636,12 +639,14 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Microsoft YaHei"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Microsoft YaHei"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -649,17 +654,20 @@
       <sz val="20"/>
       <color theme="1"/>
       <name val="Microsoft YaHei"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Microsoft YaHei"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FFFF0000"/>
       <name val="Microsoft YaHei"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -849,7 +857,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -955,24 +963,6 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1002,12 +992,6 @@
     </xf>
     <xf numFmtId="14" fontId="11" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1018,8 +1002,35 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1325,8 +1336,8 @@
   <dimension ref="A1:Q90"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A75" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E82" sqref="E82"/>
+      <pane ySplit="3" topLeftCell="A78" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B88" sqref="B88:B89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1345,18 +1356,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" s="10" customFormat="1" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
-      <c r="I1" s="36"/>
-      <c r="J1" s="36"/>
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
+      <c r="H1" s="48"/>
+      <c r="I1" s="48"/>
+      <c r="J1" s="48"/>
       <c r="L1" s="12" t="s">
         <v>1</v>
       </c>
@@ -1377,18 +1388,18 @@
       </c>
     </row>
     <row r="2" spans="1:17" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="37" t="s">
+      <c r="A2" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="38"/>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38"/>
-      <c r="I2" s="38"/>
-      <c r="J2" s="39"/>
+      <c r="B2" s="50"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="50"/>
+      <c r="H2" s="50"/>
+      <c r="I2" s="50"/>
+      <c r="J2" s="51"/>
     </row>
     <row r="3" spans="1:17" s="10" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="13"/>
@@ -1424,7 +1435,7 @@
       <c r="A4" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="35" t="s">
+      <c r="B4" s="52" t="s">
         <v>18</v>
       </c>
       <c r="C4" s="14" t="s">
@@ -1443,14 +1454,14 @@
       <c r="H4" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="I4" s="43"/>
+      <c r="I4" s="37"/>
       <c r="J4" s="18"/>
     </row>
     <row r="5" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="35"/>
+      <c r="B5" s="52"/>
       <c r="C5" s="15" t="s">
         <v>22</v>
       </c>
@@ -1467,14 +1478,14 @@
       <c r="H5" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="I5" s="44"/>
+      <c r="I5" s="38"/>
       <c r="J5" s="14"/>
     </row>
     <row r="6" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="35"/>
+      <c r="B6" s="52"/>
       <c r="C6" s="15" t="s">
         <v>25</v>
       </c>
@@ -1491,14 +1502,14 @@
       <c r="H6" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="I6" s="44"/>
+      <c r="I6" s="38"/>
       <c r="J6" s="14"/>
     </row>
     <row r="7" spans="1:17" s="11" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="14">
         <v>1</v>
       </c>
-      <c r="B7" s="35" t="s">
+      <c r="B7" s="52" t="s">
         <v>27</v>
       </c>
       <c r="C7" s="14" t="s">
@@ -1517,14 +1528,14 @@
       <c r="H7" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="I7" s="43"/>
+      <c r="I7" s="37"/>
       <c r="J7" s="23"/>
     </row>
     <row r="8" spans="1:17" s="11" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="14">
         <v>2</v>
       </c>
-      <c r="B8" s="35"/>
+      <c r="B8" s="52"/>
       <c r="C8" s="14" t="s">
         <v>29</v>
       </c>
@@ -1541,14 +1552,14 @@
       <c r="H8" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="I8" s="43"/>
+      <c r="I8" s="37"/>
       <c r="J8" s="18"/>
     </row>
     <row r="9" spans="1:17" s="11" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" s="14">
         <v>3</v>
       </c>
-      <c r="B9" s="35"/>
+      <c r="B9" s="52"/>
       <c r="C9" s="16" t="s">
         <v>30</v>
       </c>
@@ -1567,14 +1578,14 @@
       <c r="H9" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="I9" s="45"/>
+      <c r="I9" s="39"/>
       <c r="J9" s="19"/>
     </row>
     <row r="10" spans="1:17" s="11" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A10" s="14">
         <v>5</v>
       </c>
-      <c r="B10" s="35"/>
+      <c r="B10" s="52"/>
       <c r="C10" s="14" t="s">
         <v>32</v>
       </c>
@@ -1593,14 +1604,14 @@
       <c r="H10" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="I10" s="44"/>
+      <c r="I10" s="38"/>
       <c r="J10" s="18"/>
     </row>
     <row r="11" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" s="14">
         <v>6</v>
       </c>
-      <c r="B11" s="35" t="s">
+      <c r="B11" s="52" t="s">
         <v>34</v>
       </c>
       <c r="C11" s="15" t="s">
@@ -1621,14 +1632,14 @@
       <c r="H11" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="I11" s="44"/>
+      <c r="I11" s="38"/>
       <c r="J11" s="14"/>
     </row>
     <row r="12" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" s="14">
         <v>7</v>
       </c>
-      <c r="B12" s="35"/>
+      <c r="B12" s="52"/>
       <c r="C12" s="15" t="s">
         <v>36</v>
       </c>
@@ -1645,7 +1656,7 @@
       <c r="H12" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="I12" s="44"/>
+      <c r="I12" s="38"/>
       <c r="J12" s="14" t="s">
         <v>38</v>
       </c>
@@ -1654,7 +1665,7 @@
       <c r="A13" s="14">
         <v>8</v>
       </c>
-      <c r="B13" s="35"/>
+      <c r="B13" s="52"/>
       <c r="C13" s="15" t="s">
         <v>39</v>
       </c>
@@ -1671,7 +1682,7 @@
       <c r="H13" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="I13" s="44"/>
+      <c r="I13" s="38"/>
       <c r="J13" s="14" t="s">
         <v>38</v>
       </c>
@@ -1680,7 +1691,7 @@
       <c r="A14" s="14">
         <v>10</v>
       </c>
-      <c r="B14" s="35"/>
+      <c r="B14" s="52"/>
       <c r="C14" s="15" t="s">
         <v>42</v>
       </c>
@@ -1697,14 +1708,14 @@
       <c r="H14" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="I14" s="44"/>
+      <c r="I14" s="38"/>
       <c r="J14" s="14"/>
     </row>
     <row r="15" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" s="14">
         <v>11</v>
       </c>
-      <c r="B15" s="35"/>
+      <c r="B15" s="52"/>
       <c r="C15" s="15" t="s">
         <v>44</v>
       </c>
@@ -1723,14 +1734,14 @@
       <c r="H15" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="I15" s="44"/>
+      <c r="I15" s="38"/>
       <c r="J15" s="14"/>
     </row>
     <row r="16" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A16" s="14">
         <v>12</v>
       </c>
-      <c r="B16" s="35"/>
+      <c r="B16" s="52"/>
       <c r="C16" s="15" t="s">
         <v>46</v>
       </c>
@@ -1747,14 +1758,14 @@
       <c r="H16" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="I16" s="44"/>
+      <c r="I16" s="38"/>
       <c r="J16" s="14"/>
     </row>
     <row r="17" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A17" s="14">
         <v>13</v>
       </c>
-      <c r="B17" s="35"/>
+      <c r="B17" s="52"/>
       <c r="C17" s="16" t="s">
         <v>48</v>
       </c>
@@ -1771,16 +1782,16 @@
       <c r="H17" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="I17" s="46"/>
+      <c r="I17" s="40"/>
       <c r="J17" s="16"/>
     </row>
     <row r="18" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A18" s="14">
         <v>14</v>
       </c>
-      <c r="B18" s="35"/>
+      <c r="B18" s="52"/>
       <c r="C18" s="14" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="D18" s="14" t="s">
         <v>1</v>
@@ -1795,18 +1806,18 @@
       <c r="H18" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="I18" s="44"/>
+      <c r="I18" s="38"/>
       <c r="J18" s="14"/>
     </row>
     <row r="19" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A19" s="14">
         <v>15</v>
       </c>
-      <c r="B19" s="35" t="s">
+      <c r="B19" s="52" t="s">
         <v>50</v>
       </c>
       <c r="C19" s="14" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D19" s="14" t="s">
         <v>1</v>
@@ -1821,14 +1832,14 @@
       <c r="H19" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="I19" s="44"/>
+      <c r="I19" s="38"/>
       <c r="J19" s="14"/>
     </row>
     <row r="20" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A20" s="14">
         <v>27</v>
       </c>
-      <c r="B20" s="35"/>
+      <c r="B20" s="52"/>
       <c r="C20" s="15" t="s">
         <v>57</v>
       </c>
@@ -1845,16 +1856,16 @@
       <c r="H20" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="I20" s="44"/>
+      <c r="I20" s="38"/>
       <c r="J20" s="14"/>
     </row>
     <row r="21" spans="1:10" s="11" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A21" s="14">
         <v>30</v>
       </c>
-      <c r="B21" s="35"/>
+      <c r="B21" s="52"/>
       <c r="C21" s="14" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="D21" s="14" t="s">
         <v>1</v>
@@ -1869,7 +1880,7 @@
       <c r="H21" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="I21" s="44"/>
+      <c r="I21" s="38"/>
       <c r="J21" s="14" t="s">
         <v>58</v>
       </c>
@@ -1878,7 +1889,7 @@
       <c r="A22" s="14">
         <v>31</v>
       </c>
-      <c r="B22" s="35"/>
+      <c r="B22" s="52"/>
       <c r="C22" s="14" t="s">
         <v>59</v>
       </c>
@@ -1895,14 +1906,14 @@
       <c r="H22" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="I22" s="44"/>
+      <c r="I22" s="38"/>
       <c r="J22" s="13"/>
     </row>
     <row r="23" spans="1:10" s="34" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A23" s="16">
         <v>34</v>
       </c>
-      <c r="B23" s="35"/>
+      <c r="B23" s="52"/>
       <c r="C23" s="16" t="s">
         <v>61</v>
       </c>
@@ -1919,16 +1930,16 @@
       <c r="H23" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="I23" s="46"/>
+      <c r="I23" s="40"/>
       <c r="J23" s="16"/>
     </row>
     <row r="24" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A24" s="14">
         <v>18</v>
       </c>
-      <c r="B24" s="35"/>
+      <c r="B24" s="52"/>
       <c r="C24" s="14" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D24" s="14" t="s">
         <v>1</v>
@@ -1943,16 +1954,16 @@
       <c r="H24" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="I24" s="44"/>
+      <c r="I24" s="38"/>
       <c r="J24" s="14"/>
     </row>
     <row r="25" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A25" s="14">
         <v>19</v>
       </c>
-      <c r="B25" s="35"/>
+      <c r="B25" s="52"/>
       <c r="C25" s="14" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D25" s="14" t="s">
         <v>1</v>
@@ -1967,14 +1978,14 @@
       <c r="H25" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="I25" s="44"/>
+      <c r="I25" s="38"/>
       <c r="J25" s="14"/>
     </row>
     <row r="26" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" s="14">
         <v>22</v>
       </c>
-      <c r="B26" s="35"/>
+      <c r="B26" s="52"/>
       <c r="C26" s="17" t="s">
         <v>52</v>
       </c>
@@ -1991,7 +2002,7 @@
       <c r="H26" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="I26" s="44"/>
+      <c r="I26" s="38"/>
       <c r="J26" s="14" t="s">
         <v>54</v>
       </c>
@@ -2000,7 +2011,7 @@
       <c r="A27" s="14">
         <v>23</v>
       </c>
-      <c r="B27" s="35"/>
+      <c r="B27" s="52"/>
       <c r="C27" s="17" t="s">
         <v>55</v>
       </c>
@@ -2017,16 +2028,16 @@
       <c r="H27" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="I27" s="44"/>
+      <c r="I27" s="38"/>
       <c r="J27" s="14"/>
     </row>
     <row r="28" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A28" s="14">
         <v>25</v>
       </c>
-      <c r="B28" s="35"/>
+      <c r="B28" s="52"/>
       <c r="C28" s="14" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="D28" s="14" t="s">
         <v>1</v>
@@ -2041,14 +2052,14 @@
       <c r="H28" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="I28" s="44"/>
+      <c r="I28" s="38"/>
       <c r="J28" s="14"/>
     </row>
     <row r="29" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A29" s="14">
         <v>32</v>
       </c>
-      <c r="B29" s="35"/>
+      <c r="B29" s="52"/>
       <c r="C29" s="14" t="s">
         <v>60</v>
       </c>
@@ -2063,16 +2074,16 @@
       </c>
       <c r="G29" s="14"/>
       <c r="H29" s="14"/>
-      <c r="I29" s="44"/>
+      <c r="I29" s="38"/>
       <c r="J29" s="13"/>
     </row>
     <row r="30" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A30" s="14">
         <v>34</v>
       </c>
-      <c r="B30" s="35"/>
+      <c r="B30" s="52"/>
       <c r="C30" s="14" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="D30" s="14" t="s">
         <v>1</v>
@@ -2087,14 +2098,14 @@
       <c r="H30" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="I30" s="44"/>
+      <c r="I30" s="38"/>
       <c r="J30" s="14"/>
     </row>
     <row r="31" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A31" s="14">
         <v>35</v>
       </c>
-      <c r="B31" s="35"/>
+      <c r="B31" s="52"/>
       <c r="C31" s="14" t="s">
         <v>62</v>
       </c>
@@ -2109,318 +2120,318 @@
       </c>
       <c r="G31" s="14"/>
       <c r="H31" s="14"/>
-      <c r="I31" s="44"/>
+      <c r="I31" s="38"/>
       <c r="J31" s="13"/>
     </row>
     <row r="32" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A32" s="14">
         <v>37</v>
       </c>
-      <c r="B32" s="51" t="s">
-        <v>177</v>
-      </c>
-      <c r="C32" s="47" t="s">
-        <v>152</v>
-      </c>
-      <c r="D32" s="47" t="s">
+      <c r="B32" s="53" t="s">
+        <v>174</v>
+      </c>
+      <c r="C32" s="41" t="s">
+        <v>149</v>
+      </c>
+      <c r="D32" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="E32" s="49">
+      <c r="E32" s="43">
         <v>43801</v>
       </c>
-      <c r="F32" s="49">
+      <c r="F32" s="43">
         <v>43801</v>
       </c>
       <c r="G32" s="33">
         <v>43801</v>
       </c>
-      <c r="H32" s="47" t="s">
-        <v>162</v>
-      </c>
-      <c r="I32" s="44"/>
+      <c r="H32" s="41" t="s">
+        <v>159</v>
+      </c>
+      <c r="I32" s="38"/>
       <c r="J32" s="14"/>
     </row>
     <row r="33" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A33" s="14">
         <v>38</v>
       </c>
-      <c r="B33" s="35"/>
-      <c r="C33" s="46" t="s">
-        <v>159</v>
-      </c>
-      <c r="D33" s="46" t="s">
+      <c r="B33" s="52"/>
+      <c r="C33" s="40" t="s">
+        <v>156</v>
+      </c>
+      <c r="D33" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="E33" s="50">
+      <c r="E33" s="44">
         <v>43802</v>
       </c>
-      <c r="F33" s="50">
+      <c r="F33" s="44">
         <v>43802</v>
       </c>
       <c r="G33" s="33">
         <v>43802</v>
       </c>
-      <c r="H33" s="46" t="s">
-        <v>162</v>
-      </c>
-      <c r="I33" s="44"/>
+      <c r="H33" s="40" t="s">
+        <v>159</v>
+      </c>
+      <c r="I33" s="38"/>
       <c r="J33" s="14"/>
     </row>
     <row r="34" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A34" s="14">
         <v>39</v>
       </c>
-      <c r="B34" s="35"/>
-      <c r="C34" s="47" t="s">
-        <v>153</v>
-      </c>
-      <c r="D34" s="47" t="s">
+      <c r="B34" s="52"/>
+      <c r="C34" s="41" t="s">
+        <v>150</v>
+      </c>
+      <c r="D34" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="E34" s="49">
+      <c r="E34" s="43">
         <v>43802</v>
       </c>
-      <c r="F34" s="49">
+      <c r="F34" s="43">
         <v>43802</v>
       </c>
       <c r="G34" s="33">
         <v>43802</v>
       </c>
-      <c r="H34" s="47" t="s">
-        <v>162</v>
-      </c>
-      <c r="I34" s="44"/>
+      <c r="H34" s="41" t="s">
+        <v>159</v>
+      </c>
+      <c r="I34" s="38"/>
       <c r="J34" s="14"/>
     </row>
     <row r="35" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A35" s="14">
         <v>40</v>
       </c>
-      <c r="B35" s="35"/>
-      <c r="C35" s="47" t="s">
-        <v>160</v>
-      </c>
-      <c r="D35" s="47" t="s">
+      <c r="B35" s="52"/>
+      <c r="C35" s="41" t="s">
+        <v>157</v>
+      </c>
+      <c r="D35" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="E35" s="49">
+      <c r="E35" s="43">
         <v>43803</v>
       </c>
-      <c r="F35" s="49">
+      <c r="F35" s="43">
         <v>43803</v>
       </c>
       <c r="G35" s="33">
         <v>43803</v>
       </c>
-      <c r="H35" s="47" t="s">
-        <v>162</v>
-      </c>
-      <c r="I35" s="44"/>
+      <c r="H35" s="41" t="s">
+        <v>159</v>
+      </c>
+      <c r="I35" s="38"/>
       <c r="J35" s="14"/>
     </row>
     <row r="36" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A36" s="14">
         <v>41</v>
       </c>
-      <c r="B36" s="35"/>
-      <c r="C36" s="47" t="s">
-        <v>154</v>
-      </c>
-      <c r="D36" s="47" t="s">
+      <c r="B36" s="52"/>
+      <c r="C36" s="41" t="s">
+        <v>151</v>
+      </c>
+      <c r="D36" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="E36" s="49">
+      <c r="E36" s="43">
         <v>43803</v>
       </c>
-      <c r="F36" s="49">
+      <c r="F36" s="43">
         <v>43803</v>
       </c>
       <c r="G36" s="33">
         <v>43803</v>
       </c>
-      <c r="H36" s="47" t="s">
-        <v>162</v>
-      </c>
-      <c r="I36" s="44"/>
+      <c r="H36" s="41" t="s">
+        <v>159</v>
+      </c>
+      <c r="I36" s="38"/>
       <c r="J36" s="14"/>
     </row>
     <row r="37" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A37" s="14"/>
-      <c r="B37" s="35"/>
-      <c r="C37" s="47" t="s">
-        <v>161</v>
-      </c>
-      <c r="D37" s="47" t="s">
+      <c r="B37" s="52"/>
+      <c r="C37" s="41" t="s">
+        <v>158</v>
+      </c>
+      <c r="D37" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="E37" s="49">
+      <c r="E37" s="43">
         <v>43804</v>
       </c>
-      <c r="F37" s="49">
+      <c r="F37" s="43">
         <v>43804</v>
       </c>
       <c r="G37" s="33">
         <v>43804</v>
       </c>
-      <c r="H37" s="47" t="s">
-        <v>162</v>
-      </c>
-      <c r="I37" s="46"/>
+      <c r="H37" s="41" t="s">
+        <v>159</v>
+      </c>
+      <c r="I37" s="40"/>
       <c r="J37" s="16"/>
     </row>
     <row r="38" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A38" s="14">
         <v>43</v>
       </c>
-      <c r="B38" s="35"/>
-      <c r="C38" s="47" t="s">
-        <v>155</v>
-      </c>
-      <c r="D38" s="47" t="s">
+      <c r="B38" s="52"/>
+      <c r="C38" s="41" t="s">
+        <v>152</v>
+      </c>
+      <c r="D38" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="E38" s="49">
+      <c r="E38" s="43">
         <v>43804</v>
       </c>
-      <c r="F38" s="49">
+      <c r="F38" s="43">
         <v>43804</v>
       </c>
       <c r="G38" s="33">
         <v>43804</v>
       </c>
-      <c r="H38" s="47" t="s">
-        <v>162</v>
-      </c>
-      <c r="I38" s="47"/>
+      <c r="H38" s="41" t="s">
+        <v>159</v>
+      </c>
+      <c r="I38" s="41"/>
       <c r="J38" s="15"/>
     </row>
     <row r="39" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A39" s="14">
         <v>44</v>
       </c>
-      <c r="B39" s="35"/>
-      <c r="C39" s="47" t="s">
-        <v>156</v>
-      </c>
-      <c r="D39" s="47" t="s">
+      <c r="B39" s="52"/>
+      <c r="C39" s="41" t="s">
+        <v>153</v>
+      </c>
+      <c r="D39" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="E39" s="49">
+      <c r="E39" s="43">
         <v>43805</v>
       </c>
-      <c r="F39" s="49">
+      <c r="F39" s="43">
         <v>43830</v>
       </c>
-      <c r="G39" s="47"/>
-      <c r="H39" s="47" t="s">
-        <v>162</v>
-      </c>
-      <c r="I39" s="44"/>
+      <c r="G39" s="41"/>
+      <c r="H39" s="41" t="s">
+        <v>159</v>
+      </c>
+      <c r="I39" s="38"/>
       <c r="J39" s="14"/>
     </row>
     <row r="40" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A40" s="14">
         <v>45</v>
       </c>
-      <c r="B40" s="35"/>
-      <c r="C40" s="47" t="s">
-        <v>157</v>
-      </c>
-      <c r="D40" s="47" t="s">
+      <c r="B40" s="52"/>
+      <c r="C40" s="41" t="s">
+        <v>154</v>
+      </c>
+      <c r="D40" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="E40" s="49">
+      <c r="E40" s="43">
         <v>43805</v>
       </c>
-      <c r="F40" s="49">
+      <c r="F40" s="43">
         <v>43830</v>
       </c>
-      <c r="G40" s="47"/>
-      <c r="H40" s="47" t="s">
-        <v>162</v>
-      </c>
-      <c r="I40" s="44"/>
+      <c r="G40" s="41"/>
+      <c r="H40" s="41" t="s">
+        <v>159</v>
+      </c>
+      <c r="I40" s="38"/>
       <c r="J40" s="12" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
     <row r="41" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A41" s="14">
         <v>46</v>
       </c>
-      <c r="B41" s="35"/>
-      <c r="C41" s="46" t="s">
+      <c r="B41" s="52"/>
+      <c r="C41" s="40" t="s">
         <v>64</v>
       </c>
-      <c r="D41" s="46" t="s">
-        <v>1</v>
-      </c>
-      <c r="E41" s="50">
+      <c r="D41" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="E41" s="44">
         <v>43829</v>
       </c>
-      <c r="F41" s="50">
+      <c r="F41" s="44">
         <v>43829</v>
       </c>
-      <c r="G41" s="46"/>
-      <c r="H41" s="46" t="s">
+      <c r="G41" s="40"/>
+      <c r="H41" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="I41" s="46"/>
+      <c r="I41" s="40"/>
       <c r="J41" s="24"/>
     </row>
     <row r="42" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A42" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="B42" s="35"/>
-      <c r="C42" s="47" t="s">
-        <v>158</v>
-      </c>
-      <c r="D42" s="47" t="s">
-        <v>1</v>
-      </c>
-      <c r="E42" s="49">
+      <c r="B42" s="52"/>
+      <c r="C42" s="41" t="s">
+        <v>155</v>
+      </c>
+      <c r="D42" s="41" t="s">
+        <v>1</v>
+      </c>
+      <c r="E42" s="43">
         <v>43822</v>
       </c>
-      <c r="F42" s="49">
+      <c r="F42" s="43">
         <v>43826</v>
       </c>
-      <c r="G42" s="47"/>
-      <c r="H42" s="47" t="s">
-        <v>162</v>
-      </c>
-      <c r="I42" s="44"/>
+      <c r="G42" s="41"/>
+      <c r="H42" s="41" t="s">
+        <v>159</v>
+      </c>
+      <c r="I42" s="38"/>
       <c r="J42" s="13"/>
     </row>
     <row r="43" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A43" s="14">
         <v>48</v>
       </c>
-      <c r="B43" s="35"/>
-      <c r="C43" s="47" t="s">
+      <c r="B43" s="52"/>
+      <c r="C43" s="41" t="s">
         <v>65</v>
       </c>
-      <c r="D43" s="47" t="s">
-        <v>1</v>
-      </c>
-      <c r="E43" s="49">
+      <c r="D43" s="41" t="s">
+        <v>1</v>
+      </c>
+      <c r="E43" s="43">
         <v>43830</v>
       </c>
-      <c r="F43" s="49">
+      <c r="F43" s="43">
         <v>43830</v>
       </c>
-      <c r="G43" s="47"/>
-      <c r="H43" s="47" t="s">
+      <c r="G43" s="41"/>
+      <c r="H43" s="41" t="s">
         <v>31</v>
       </c>
-      <c r="I43" s="44"/>
+      <c r="I43" s="38"/>
       <c r="J43" s="13"/>
     </row>
     <row r="44" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A44" s="14">
         <v>52</v>
       </c>
-      <c r="B44" s="35"/>
+      <c r="B44" s="52"/>
       <c r="C44" s="16" t="s">
         <v>66</v>
       </c>
@@ -2437,8 +2448,8 @@
       <c r="H44" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="I44" s="46" t="s">
-        <v>151</v>
+      <c r="I44" s="40" t="s">
+        <v>148</v>
       </c>
       <c r="J44" s="24"/>
     </row>
@@ -2446,1015 +2457,1015 @@
       <c r="A45" s="14">
         <v>53</v>
       </c>
-      <c r="B45" s="51" t="s">
-        <v>163</v>
-      </c>
-      <c r="C45" s="47" t="s">
+      <c r="B45" s="53" t="s">
+        <v>160</v>
+      </c>
+      <c r="C45" s="41" t="s">
         <v>67</v>
       </c>
-      <c r="D45" s="47" t="s">
-        <v>1</v>
-      </c>
-      <c r="E45" s="49">
+      <c r="D45" s="41" t="s">
+        <v>1</v>
+      </c>
+      <c r="E45" s="43">
         <v>43822</v>
       </c>
-      <c r="F45" s="49">
+      <c r="F45" s="43">
         <v>43822</v>
       </c>
-      <c r="G45" s="47"/>
-      <c r="H45" s="47" t="s">
-        <v>162</v>
-      </c>
-      <c r="I45" s="47"/>
-      <c r="J45" s="47"/>
+      <c r="G45" s="41"/>
+      <c r="H45" s="41" t="s">
+        <v>159</v>
+      </c>
+      <c r="I45" s="41"/>
+      <c r="J45" s="41"/>
     </row>
     <row r="46" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A46" s="32"/>
-      <c r="B46" s="51"/>
-      <c r="C46" s="47" t="s">
-        <v>164</v>
-      </c>
-      <c r="D46" s="47" t="s">
-        <v>1</v>
-      </c>
-      <c r="E46" s="49">
+      <c r="B46" s="53"/>
+      <c r="C46" s="41" t="s">
+        <v>161</v>
+      </c>
+      <c r="D46" s="41" t="s">
+        <v>1</v>
+      </c>
+      <c r="E46" s="43">
         <v>43822</v>
       </c>
-      <c r="F46" s="49">
+      <c r="F46" s="43">
         <v>43822</v>
       </c>
-      <c r="G46" s="47"/>
-      <c r="H46" s="47" t="s">
-        <v>162</v>
-      </c>
-      <c r="I46" s="47"/>
-      <c r="J46" s="47"/>
+      <c r="G46" s="41"/>
+      <c r="H46" s="41" t="s">
+        <v>159</v>
+      </c>
+      <c r="I46" s="41"/>
+      <c r="J46" s="41"/>
     </row>
     <row r="47" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A47" s="32"/>
-      <c r="B47" s="51"/>
-      <c r="C47" s="47" t="s">
-        <v>165</v>
-      </c>
-      <c r="D47" s="47" t="s">
-        <v>1</v>
-      </c>
-      <c r="E47" s="49">
+      <c r="B47" s="53"/>
+      <c r="C47" s="41" t="s">
+        <v>162</v>
+      </c>
+      <c r="D47" s="41" t="s">
+        <v>1</v>
+      </c>
+      <c r="E47" s="43">
         <v>43822</v>
       </c>
-      <c r="F47" s="49">
+      <c r="F47" s="43">
         <v>43822</v>
       </c>
-      <c r="G47" s="47"/>
-      <c r="H47" s="47" t="s">
-        <v>162</v>
-      </c>
-      <c r="I47" s="42"/>
-      <c r="J47" s="47"/>
+      <c r="G47" s="41"/>
+      <c r="H47" s="41" t="s">
+        <v>159</v>
+      </c>
+      <c r="I47" s="36"/>
+      <c r="J47" s="41"/>
     </row>
     <row r="48" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A48" s="32"/>
-      <c r="B48" s="51"/>
-      <c r="C48" s="47" t="s">
-        <v>166</v>
-      </c>
-      <c r="D48" s="47" t="s">
-        <v>1</v>
-      </c>
-      <c r="E48" s="49">
+      <c r="B48" s="53"/>
+      <c r="C48" s="41" t="s">
+        <v>163</v>
+      </c>
+      <c r="D48" s="41" t="s">
+        <v>1</v>
+      </c>
+      <c r="E48" s="43">
         <v>43822</v>
       </c>
-      <c r="F48" s="49">
+      <c r="F48" s="43">
         <v>43822</v>
       </c>
-      <c r="G48" s="47"/>
-      <c r="H48" s="47" t="s">
-        <v>162</v>
-      </c>
-      <c r="I48" s="42"/>
-      <c r="J48" s="42"/>
+      <c r="G48" s="41"/>
+      <c r="H48" s="41" t="s">
+        <v>159</v>
+      </c>
+      <c r="I48" s="36"/>
+      <c r="J48" s="36"/>
     </row>
     <row r="49" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A49" s="32"/>
-      <c r="B49" s="51"/>
-      <c r="C49" s="47" t="s">
-        <v>171</v>
-      </c>
-      <c r="D49" s="47" t="s">
-        <v>1</v>
-      </c>
-      <c r="E49" s="49">
+      <c r="B49" s="53"/>
+      <c r="C49" s="41" t="s">
+        <v>168</v>
+      </c>
+      <c r="D49" s="41" t="s">
+        <v>1</v>
+      </c>
+      <c r="E49" s="43">
         <v>43822</v>
       </c>
-      <c r="F49" s="49">
+      <c r="F49" s="43">
         <v>43823</v>
       </c>
-      <c r="G49" s="47"/>
-      <c r="H49" s="47" t="s">
-        <v>162</v>
-      </c>
-      <c r="I49" s="42"/>
-      <c r="J49" s="42"/>
+      <c r="G49" s="41"/>
+      <c r="H49" s="41" t="s">
+        <v>159</v>
+      </c>
+      <c r="I49" s="36"/>
+      <c r="J49" s="36"/>
     </row>
     <row r="50" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A50" s="14">
         <v>54</v>
       </c>
-      <c r="B50" s="35"/>
-      <c r="C50" s="47" t="s">
-        <v>168</v>
-      </c>
-      <c r="D50" s="47" t="s">
-        <v>1</v>
-      </c>
-      <c r="E50" s="49">
+      <c r="B50" s="52"/>
+      <c r="C50" s="41" t="s">
+        <v>165</v>
+      </c>
+      <c r="D50" s="41" t="s">
+        <v>1</v>
+      </c>
+      <c r="E50" s="43">
         <v>43824</v>
       </c>
-      <c r="F50" s="49">
+      <c r="F50" s="43">
         <v>43824</v>
       </c>
-      <c r="G50" s="47"/>
-      <c r="H50" s="47" t="s">
-        <v>162</v>
-      </c>
-      <c r="I50" s="42"/>
-      <c r="J50" s="42"/>
+      <c r="G50" s="41"/>
+      <c r="H50" s="41" t="s">
+        <v>159</v>
+      </c>
+      <c r="I50" s="36"/>
+      <c r="J50" s="36"/>
     </row>
     <row r="51" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A51" s="14">
         <v>55</v>
       </c>
-      <c r="B51" s="35"/>
-      <c r="C51" s="47" t="s">
-        <v>173</v>
-      </c>
-      <c r="D51" s="47" t="s">
-        <v>1</v>
-      </c>
-      <c r="E51" s="49">
+      <c r="B51" s="52"/>
+      <c r="C51" s="41" t="s">
+        <v>170</v>
+      </c>
+      <c r="D51" s="41" t="s">
+        <v>1</v>
+      </c>
+      <c r="E51" s="43">
         <v>43824</v>
       </c>
-      <c r="F51" s="49">
+      <c r="F51" s="43">
         <v>43826</v>
       </c>
-      <c r="G51" s="47"/>
-      <c r="H51" s="47" t="s">
-        <v>162</v>
-      </c>
-      <c r="I51" s="42"/>
-      <c r="J51" s="42"/>
+      <c r="G51" s="41"/>
+      <c r="H51" s="41" t="s">
+        <v>159</v>
+      </c>
+      <c r="I51" s="36"/>
+      <c r="J51" s="36"/>
     </row>
     <row r="52" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A52" s="32"/>
-      <c r="B52" s="35"/>
-      <c r="C52" s="47" t="s">
-        <v>167</v>
-      </c>
-      <c r="D52" s="47" t="s">
-        <v>1</v>
-      </c>
-      <c r="E52" s="49">
+      <c r="B52" s="52"/>
+      <c r="C52" s="41" t="s">
+        <v>164</v>
+      </c>
+      <c r="D52" s="41" t="s">
+        <v>1</v>
+      </c>
+      <c r="E52" s="43">
         <v>43829</v>
       </c>
-      <c r="F52" s="49">
+      <c r="F52" s="43">
         <v>43830</v>
       </c>
-      <c r="G52" s="47"/>
-      <c r="H52" s="47" t="s">
-        <v>162</v>
-      </c>
-      <c r="I52" s="42"/>
-      <c r="J52" s="42"/>
+      <c r="G52" s="41"/>
+      <c r="H52" s="41" t="s">
+        <v>159</v>
+      </c>
+      <c r="I52" s="36"/>
+      <c r="J52" s="36"/>
     </row>
     <row r="53" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A53" s="32"/>
-      <c r="B53" s="35"/>
-      <c r="C53" s="47" t="s">
-        <v>172</v>
-      </c>
-      <c r="D53" s="47" t="s">
-        <v>1</v>
-      </c>
-      <c r="E53" s="49">
+      <c r="B53" s="52"/>
+      <c r="C53" s="41" t="s">
+        <v>169</v>
+      </c>
+      <c r="D53" s="41" t="s">
+        <v>1</v>
+      </c>
+      <c r="E53" s="43">
         <v>43830</v>
       </c>
-      <c r="F53" s="49">
+      <c r="F53" s="43">
         <v>43830</v>
       </c>
-      <c r="G53" s="47"/>
-      <c r="H53" s="47" t="s">
-        <v>162</v>
-      </c>
-      <c r="I53" s="42"/>
-      <c r="J53" s="42"/>
+      <c r="G53" s="41"/>
+      <c r="H53" s="41" t="s">
+        <v>159</v>
+      </c>
+      <c r="I53" s="36"/>
+      <c r="J53" s="36"/>
     </row>
     <row r="54" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A54" s="14">
         <v>60</v>
       </c>
-      <c r="B54" s="35"/>
-      <c r="C54" s="41" t="s">
+      <c r="B54" s="52"/>
+      <c r="C54" s="35" t="s">
         <v>68</v>
       </c>
-      <c r="D54" s="46" t="s">
-        <v>1</v>
-      </c>
-      <c r="E54" s="50">
+      <c r="D54" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="E54" s="44">
         <v>43830</v>
       </c>
-      <c r="F54" s="50">
+      <c r="F54" s="44">
         <v>43830</v>
       </c>
-      <c r="G54" s="46"/>
-      <c r="H54" s="46" t="s">
+      <c r="G54" s="40"/>
+      <c r="H54" s="40" t="s">
         <v>31</v>
       </c>
-      <c r="I54" s="41"/>
-      <c r="J54" s="41"/>
+      <c r="I54" s="35"/>
+      <c r="J54" s="35"/>
     </row>
     <row r="55" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A55" s="14">
         <v>61</v>
       </c>
-      <c r="B55" s="35"/>
-      <c r="C55" s="47" t="s">
-        <v>169</v>
-      </c>
-      <c r="D55" s="47" t="s">
-        <v>1</v>
-      </c>
-      <c r="E55" s="49">
+      <c r="B55" s="52"/>
+      <c r="C55" s="41" t="s">
+        <v>166</v>
+      </c>
+      <c r="D55" s="41" t="s">
+        <v>1</v>
+      </c>
+      <c r="E55" s="43">
         <v>43831</v>
       </c>
-      <c r="F55" s="49">
+      <c r="F55" s="43">
         <v>43861</v>
       </c>
-      <c r="G55" s="47"/>
-      <c r="H55" s="47" t="s">
-        <v>162</v>
-      </c>
-      <c r="I55" s="42"/>
-      <c r="J55" s="47"/>
+      <c r="G55" s="41"/>
+      <c r="H55" s="41" t="s">
+        <v>159</v>
+      </c>
+      <c r="I55" s="36"/>
+      <c r="J55" s="41"/>
     </row>
     <row r="56" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A56" s="14">
         <v>62</v>
       </c>
-      <c r="B56" s="35"/>
-      <c r="C56" s="47" t="s">
-        <v>170</v>
-      </c>
-      <c r="D56" s="47" t="s">
-        <v>1</v>
-      </c>
-      <c r="E56" s="49">
+      <c r="B56" s="52"/>
+      <c r="C56" s="41" t="s">
+        <v>167</v>
+      </c>
+      <c r="D56" s="41" t="s">
+        <v>1</v>
+      </c>
+      <c r="E56" s="43">
         <v>43831</v>
       </c>
-      <c r="F56" s="49">
+      <c r="F56" s="43">
         <v>43861</v>
       </c>
-      <c r="G56" s="47"/>
-      <c r="H56" s="47" t="s">
-        <v>162</v>
-      </c>
-      <c r="I56" s="47"/>
-      <c r="J56" s="47"/>
+      <c r="G56" s="41"/>
+      <c r="H56" s="41" t="s">
+        <v>159</v>
+      </c>
+      <c r="I56" s="41"/>
+      <c r="J56" s="41"/>
     </row>
     <row r="57" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A57" s="14">
         <v>63</v>
       </c>
-      <c r="B57" s="35"/>
-      <c r="C57" s="47" t="s">
-        <v>174</v>
-      </c>
-      <c r="D57" s="47" t="s">
-        <v>1</v>
-      </c>
-      <c r="E57" s="49">
+      <c r="B57" s="52"/>
+      <c r="C57" s="41" t="s">
+        <v>171</v>
+      </c>
+      <c r="D57" s="41" t="s">
+        <v>1</v>
+      </c>
+      <c r="E57" s="43">
         <v>43864</v>
       </c>
-      <c r="F57" s="49">
+      <c r="F57" s="43">
         <v>43868</v>
       </c>
-      <c r="G57" s="47"/>
-      <c r="H57" s="47" t="s">
-        <v>162</v>
-      </c>
-      <c r="I57" s="47"/>
-      <c r="J57" s="47"/>
+      <c r="G57" s="41"/>
+      <c r="H57" s="41" t="s">
+        <v>159</v>
+      </c>
+      <c r="I57" s="41"/>
+      <c r="J57" s="41"/>
     </row>
     <row r="58" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A58" s="14">
         <v>64</v>
       </c>
-      <c r="B58" s="35"/>
-      <c r="C58" s="46" t="s">
+      <c r="B58" s="52"/>
+      <c r="C58" s="40" t="s">
+        <v>172</v>
+      </c>
+      <c r="D58" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="E58" s="44">
+        <v>43864</v>
+      </c>
+      <c r="F58" s="44">
+        <v>43868</v>
+      </c>
+      <c r="G58" s="40"/>
+      <c r="H58" s="40" t="s">
+        <v>20</v>
+      </c>
+      <c r="I58" s="40"/>
+      <c r="J58" s="40" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" s="45" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="41">
+        <v>53</v>
+      </c>
+      <c r="B59" s="55" t="s">
+        <v>185</v>
+      </c>
+      <c r="C59" s="41" t="s">
+        <v>67</v>
+      </c>
+      <c r="D59" s="41" t="s">
+        <v>1</v>
+      </c>
+      <c r="E59" s="43">
+        <v>43850</v>
+      </c>
+      <c r="F59" s="43">
+        <v>43850</v>
+      </c>
+      <c r="G59" s="41"/>
+      <c r="H59" s="41" t="s">
+        <v>23</v>
+      </c>
+      <c r="I59" s="41"/>
+      <c r="J59" s="41"/>
+    </row>
+    <row r="60" spans="1:10" s="45" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A60" s="41">
+        <v>54</v>
+      </c>
+      <c r="B60" s="46"/>
+      <c r="C60" s="41" t="s">
+        <v>161</v>
+      </c>
+      <c r="D60" s="41" t="s">
+        <v>1</v>
+      </c>
+      <c r="E60" s="43">
+        <v>43850</v>
+      </c>
+      <c r="F60" s="43">
+        <v>43851</v>
+      </c>
+      <c r="G60" s="41"/>
+      <c r="H60" s="41" t="s">
+        <v>159</v>
+      </c>
+      <c r="I60" s="41"/>
+      <c r="J60" s="41"/>
+    </row>
+    <row r="61" spans="1:10" s="45" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A61" s="41">
+        <v>55</v>
+      </c>
+      <c r="B61" s="46"/>
+      <c r="C61" s="41" t="s">
+        <v>162</v>
+      </c>
+      <c r="D61" s="41" t="s">
+        <v>1</v>
+      </c>
+      <c r="E61" s="43">
+        <v>43851</v>
+      </c>
+      <c r="F61" s="43">
+        <v>43851</v>
+      </c>
+      <c r="G61" s="41"/>
+      <c r="H61" s="41" t="s">
+        <v>159</v>
+      </c>
+      <c r="I61" s="36"/>
+      <c r="J61" s="41"/>
+    </row>
+    <row r="62" spans="1:10" s="45" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A62" s="41">
+        <v>58</v>
+      </c>
+      <c r="B62" s="46"/>
+      <c r="C62" s="41" t="s">
+        <v>163</v>
+      </c>
+      <c r="D62" s="41" t="s">
+        <v>1</v>
+      </c>
+      <c r="E62" s="43">
+        <v>43852</v>
+      </c>
+      <c r="F62" s="43">
+        <v>43852</v>
+      </c>
+      <c r="G62" s="41"/>
+      <c r="H62" s="41" t="s">
+        <v>159</v>
+      </c>
+      <c r="I62" s="36"/>
+      <c r="J62" s="36"/>
+    </row>
+    <row r="63" spans="1:10" s="45" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A63" s="41">
+        <v>59</v>
+      </c>
+      <c r="B63" s="46"/>
+      <c r="C63" s="41" t="s">
+        <v>168</v>
+      </c>
+      <c r="D63" s="41" t="s">
+        <v>1</v>
+      </c>
+      <c r="E63" s="43">
+        <v>43852</v>
+      </c>
+      <c r="F63" s="43">
+        <v>43852</v>
+      </c>
+      <c r="G63" s="41"/>
+      <c r="H63" s="41" t="s">
+        <v>159</v>
+      </c>
+      <c r="I63" s="36"/>
+      <c r="J63" s="36"/>
+    </row>
+    <row r="64" spans="1:10" s="45" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A64" s="41">
+        <v>60</v>
+      </c>
+      <c r="B64" s="46"/>
+      <c r="C64" s="41" t="s">
+        <v>176</v>
+      </c>
+      <c r="D64" s="41" t="s">
+        <v>1</v>
+      </c>
+      <c r="E64" s="43">
+        <v>43853</v>
+      </c>
+      <c r="F64" s="43">
+        <v>43853</v>
+      </c>
+      <c r="G64" s="41"/>
+      <c r="H64" s="41" t="s">
+        <v>159</v>
+      </c>
+      <c r="I64" s="36"/>
+      <c r="J64" s="36"/>
+    </row>
+    <row r="65" spans="1:10" s="45" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A65" s="41">
+        <v>61</v>
+      </c>
+      <c r="B65" s="46"/>
+      <c r="C65" s="41" t="s">
+        <v>170</v>
+      </c>
+      <c r="D65" s="41" t="s">
+        <v>1</v>
+      </c>
+      <c r="E65" s="43">
+        <v>43854</v>
+      </c>
+      <c r="F65" s="43">
+        <v>43854</v>
+      </c>
+      <c r="G65" s="41"/>
+      <c r="H65" s="41" t="s">
+        <v>159</v>
+      </c>
+      <c r="I65" s="36"/>
+      <c r="J65" s="36"/>
+    </row>
+    <row r="66" spans="1:10" s="45" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A66" s="41">
+        <v>62</v>
+      </c>
+      <c r="B66" s="46"/>
+      <c r="C66" s="41" t="s">
         <v>175</v>
       </c>
-      <c r="D58" s="46" t="s">
-        <v>1</v>
-      </c>
-      <c r="E58" s="50">
+      <c r="D66" s="41" t="s">
+        <v>1</v>
+      </c>
+      <c r="E66" s="43">
         <v>43864</v>
       </c>
-      <c r="F58" s="50">
-        <v>43868</v>
-      </c>
-      <c r="G58" s="46"/>
-      <c r="H58" s="46" t="s">
+      <c r="F66" s="43">
+        <v>43864</v>
+      </c>
+      <c r="G66" s="41"/>
+      <c r="H66" s="41" t="s">
+        <v>159</v>
+      </c>
+      <c r="I66" s="36"/>
+      <c r="J66" s="36"/>
+    </row>
+    <row r="67" spans="1:10" s="45" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A67" s="41">
+        <v>63</v>
+      </c>
+      <c r="B67" s="46"/>
+      <c r="C67" s="41" t="s">
+        <v>169</v>
+      </c>
+      <c r="D67" s="41" t="s">
+        <v>1</v>
+      </c>
+      <c r="E67" s="43">
+        <v>43864</v>
+      </c>
+      <c r="F67" s="43">
+        <v>43864</v>
+      </c>
+      <c r="G67" s="41"/>
+      <c r="H67" s="41" t="s">
+        <v>159</v>
+      </c>
+      <c r="I67" s="36"/>
+      <c r="J67" s="36"/>
+    </row>
+    <row r="68" spans="1:10" s="45" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A68" s="41">
+        <v>65</v>
+      </c>
+      <c r="B68" s="46"/>
+      <c r="C68" s="35" t="s">
+        <v>68</v>
+      </c>
+      <c r="D68" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="E68" s="44">
+        <v>43864</v>
+      </c>
+      <c r="F68" s="44">
+        <v>43864</v>
+      </c>
+      <c r="G68" s="40"/>
+      <c r="H68" s="40" t="s">
+        <v>31</v>
+      </c>
+      <c r="I68" s="35"/>
+      <c r="J68" s="35"/>
+    </row>
+    <row r="69" spans="1:10" s="45" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A69" s="41">
+        <v>66</v>
+      </c>
+      <c r="B69" s="46"/>
+      <c r="C69" s="41" t="s">
+        <v>177</v>
+      </c>
+      <c r="D69" s="41" t="s">
+        <v>1</v>
+      </c>
+      <c r="E69" s="43">
+        <v>43499</v>
+      </c>
+      <c r="F69" s="43">
+        <v>43524</v>
+      </c>
+      <c r="G69" s="41"/>
+      <c r="H69" s="41" t="s">
+        <v>159</v>
+      </c>
+      <c r="I69" s="36"/>
+      <c r="J69" s="41"/>
+    </row>
+    <row r="70" spans="1:10" s="45" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A70" s="41">
+        <v>67</v>
+      </c>
+      <c r="B70" s="46"/>
+      <c r="C70" s="41" t="s">
+        <v>167</v>
+      </c>
+      <c r="D70" s="41" t="s">
+        <v>1</v>
+      </c>
+      <c r="E70" s="43">
+        <v>43499</v>
+      </c>
+      <c r="F70" s="43">
+        <v>43524</v>
+      </c>
+      <c r="G70" s="41"/>
+      <c r="H70" s="41" t="s">
+        <v>159</v>
+      </c>
+      <c r="I70" s="41"/>
+      <c r="J70" s="41"/>
+    </row>
+    <row r="71" spans="1:10" s="45" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A71" s="41">
+        <v>68</v>
+      </c>
+      <c r="B71" s="46"/>
+      <c r="C71" s="41" t="s">
+        <v>179</v>
+      </c>
+      <c r="D71" s="41" t="s">
+        <v>1</v>
+      </c>
+      <c r="E71" s="43">
+        <v>43892</v>
+      </c>
+      <c r="F71" s="43">
+        <v>43896</v>
+      </c>
+      <c r="G71" s="41"/>
+      <c r="H71" s="41" t="s">
+        <v>159</v>
+      </c>
+      <c r="I71" s="41"/>
+      <c r="J71" s="41"/>
+    </row>
+    <row r="72" spans="1:10" s="45" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A72" s="41">
+        <v>69</v>
+      </c>
+      <c r="B72" s="47"/>
+      <c r="C72" s="40" t="s">
+        <v>178</v>
+      </c>
+      <c r="D72" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="E72" s="44">
+        <v>43892</v>
+      </c>
+      <c r="F72" s="44">
+        <v>43896</v>
+      </c>
+      <c r="G72" s="40"/>
+      <c r="H72" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="I58" s="46"/>
-      <c r="J58" s="46" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10" s="53" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="47">
+      <c r="I72" s="40" t="s">
+        <v>148</v>
+      </c>
+      <c r="J72" s="40"/>
+    </row>
+    <row r="73" spans="1:10" s="45" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A73" s="41">
         <v>53</v>
       </c>
-      <c r="B59" s="52" t="s">
+      <c r="B73" s="55" t="s">
+        <v>186</v>
+      </c>
+      <c r="C73" s="41" t="s">
+        <v>67</v>
+      </c>
+      <c r="D73" s="41" t="s">
+        <v>1</v>
+      </c>
+      <c r="E73" s="43">
+        <v>43885</v>
+      </c>
+      <c r="F73" s="43">
+        <v>43885</v>
+      </c>
+      <c r="G73" s="41"/>
+      <c r="H73" s="41" t="s">
+        <v>23</v>
+      </c>
+      <c r="I73" s="41"/>
+      <c r="J73" s="41"/>
+    </row>
+    <row r="74" spans="1:10" s="45" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A74" s="41">
+        <v>54</v>
+      </c>
+      <c r="B74" s="46"/>
+      <c r="C74" s="41" t="s">
+        <v>161</v>
+      </c>
+      <c r="D74" s="41" t="s">
+        <v>1</v>
+      </c>
+      <c r="E74" s="43">
+        <v>43885</v>
+      </c>
+      <c r="F74" s="43">
+        <v>43886</v>
+      </c>
+      <c r="G74" s="41"/>
+      <c r="H74" s="41" t="s">
+        <v>159</v>
+      </c>
+      <c r="I74" s="41"/>
+      <c r="J74" s="41"/>
+    </row>
+    <row r="75" spans="1:10" s="45" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A75" s="41">
+        <v>55</v>
+      </c>
+      <c r="B75" s="46"/>
+      <c r="C75" s="41" t="s">
+        <v>162</v>
+      </c>
+      <c r="D75" s="41" t="s">
+        <v>1</v>
+      </c>
+      <c r="E75" s="43">
+        <v>43886</v>
+      </c>
+      <c r="F75" s="43">
+        <v>43886</v>
+      </c>
+      <c r="G75" s="41"/>
+      <c r="H75" s="41" t="s">
+        <v>159</v>
+      </c>
+      <c r="I75" s="36"/>
+      <c r="J75" s="41"/>
+    </row>
+    <row r="76" spans="1:10" s="45" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A76" s="41">
+        <v>58</v>
+      </c>
+      <c r="B76" s="46"/>
+      <c r="C76" s="41" t="s">
+        <v>163</v>
+      </c>
+      <c r="D76" s="41" t="s">
+        <v>1</v>
+      </c>
+      <c r="E76" s="43">
+        <v>43886</v>
+      </c>
+      <c r="F76" s="43">
+        <v>43886</v>
+      </c>
+      <c r="G76" s="41"/>
+      <c r="H76" s="41" t="s">
+        <v>159</v>
+      </c>
+      <c r="I76" s="36"/>
+      <c r="J76" s="36"/>
+    </row>
+    <row r="77" spans="1:10" s="45" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A77" s="41">
+        <v>59</v>
+      </c>
+      <c r="B77" s="46"/>
+      <c r="C77" s="41" t="s">
+        <v>168</v>
+      </c>
+      <c r="D77" s="41" t="s">
+        <v>1</v>
+      </c>
+      <c r="E77" s="43">
+        <v>43886</v>
+      </c>
+      <c r="F77" s="43">
+        <v>43886</v>
+      </c>
+      <c r="G77" s="41"/>
+      <c r="H77" s="41" t="s">
+        <v>159</v>
+      </c>
+      <c r="I77" s="36"/>
+      <c r="J77" s="36"/>
+    </row>
+    <row r="78" spans="1:10" s="45" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A78" s="41">
+        <v>60</v>
+      </c>
+      <c r="B78" s="46"/>
+      <c r="C78" s="41" t="s">
+        <v>181</v>
+      </c>
+      <c r="D78" s="41" t="s">
+        <v>1</v>
+      </c>
+      <c r="E78" s="43">
+        <v>43887</v>
+      </c>
+      <c r="F78" s="43">
+        <v>43887</v>
+      </c>
+      <c r="G78" s="41"/>
+      <c r="H78" s="41" t="s">
+        <v>159</v>
+      </c>
+      <c r="I78" s="36"/>
+      <c r="J78" s="36"/>
+    </row>
+    <row r="79" spans="1:10" s="45" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A79" s="41">
+        <v>61</v>
+      </c>
+      <c r="B79" s="46"/>
+      <c r="C79" s="41" t="s">
+        <v>170</v>
+      </c>
+      <c r="D79" s="41" t="s">
+        <v>1</v>
+      </c>
+      <c r="E79" s="43">
+        <v>43888</v>
+      </c>
+      <c r="F79" s="43">
+        <v>43888</v>
+      </c>
+      <c r="G79" s="41"/>
+      <c r="H79" s="41" t="s">
+        <v>159</v>
+      </c>
+      <c r="I79" s="36"/>
+      <c r="J79" s="36"/>
+    </row>
+    <row r="80" spans="1:10" s="45" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A80" s="41">
+        <v>62</v>
+      </c>
+      <c r="B80" s="46"/>
+      <c r="C80" s="41" t="s">
         <v>182</v>
       </c>
-      <c r="C59" s="47" t="s">
+      <c r="D80" s="41" t="s">
+        <v>1</v>
+      </c>
+      <c r="E80" s="43">
+        <v>43892</v>
+      </c>
+      <c r="F80" s="43">
+        <v>43893</v>
+      </c>
+      <c r="G80" s="41"/>
+      <c r="H80" s="41" t="s">
+        <v>159</v>
+      </c>
+      <c r="I80" s="36"/>
+      <c r="J80" s="36"/>
+    </row>
+    <row r="81" spans="1:10" s="45" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A81" s="41">
+        <v>63</v>
+      </c>
+      <c r="B81" s="46"/>
+      <c r="C81" s="41" t="s">
+        <v>169</v>
+      </c>
+      <c r="D81" s="41" t="s">
+        <v>1</v>
+      </c>
+      <c r="E81" s="43">
+        <v>43893</v>
+      </c>
+      <c r="F81" s="43">
+        <v>43893</v>
+      </c>
+      <c r="G81" s="41"/>
+      <c r="H81" s="41" t="s">
+        <v>159</v>
+      </c>
+      <c r="I81" s="36"/>
+      <c r="J81" s="36"/>
+    </row>
+    <row r="82" spans="1:10" s="45" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A82" s="41">
+        <v>65</v>
+      </c>
+      <c r="B82" s="46"/>
+      <c r="C82" s="35" t="s">
+        <v>68</v>
+      </c>
+      <c r="D82" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="E82" s="44">
+        <v>43922</v>
+      </c>
+      <c r="F82" s="44">
+        <v>43929</v>
+      </c>
+      <c r="G82" s="40"/>
+      <c r="H82" s="40" t="s">
+        <v>31</v>
+      </c>
+      <c r="I82" s="35"/>
+      <c r="J82" s="35"/>
+    </row>
+    <row r="83" spans="1:10" s="45" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A83" s="41">
+        <v>66</v>
+      </c>
+      <c r="B83" s="46"/>
+      <c r="C83" s="41" t="s">
+        <v>183</v>
+      </c>
+      <c r="D83" s="41" t="s">
+        <v>1</v>
+      </c>
+      <c r="E83" s="43">
+        <v>43892</v>
+      </c>
+      <c r="F83" s="43">
+        <v>43896</v>
+      </c>
+      <c r="G83" s="41"/>
+      <c r="H83" s="41" t="s">
+        <v>159</v>
+      </c>
+      <c r="I83" s="36"/>
+      <c r="J83" s="41"/>
+    </row>
+    <row r="84" spans="1:10" s="45" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A84" s="41">
         <v>67</v>
       </c>
-      <c r="D59" s="47" t="s">
-        <v>1</v>
-      </c>
-      <c r="E59" s="49">
-        <v>43850</v>
-      </c>
-      <c r="F59" s="49">
-        <v>43850</v>
-      </c>
-      <c r="G59" s="47"/>
-      <c r="H59" s="47" t="s">
-        <v>23</v>
-      </c>
-      <c r="I59" s="47"/>
-      <c r="J59" s="47"/>
-    </row>
-    <row r="60" spans="1:10" s="53" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A60" s="47">
-        <v>54</v>
-      </c>
-      <c r="B60" s="54"/>
-      <c r="C60" s="47" t="s">
-        <v>164</v>
-      </c>
-      <c r="D60" s="47" t="s">
-        <v>1</v>
-      </c>
-      <c r="E60" s="49">
-        <v>43850</v>
-      </c>
-      <c r="F60" s="49">
-        <v>43851</v>
-      </c>
-      <c r="G60" s="47"/>
-      <c r="H60" s="47" t="s">
-        <v>162</v>
-      </c>
-      <c r="I60" s="47"/>
-      <c r="J60" s="47"/>
-    </row>
-    <row r="61" spans="1:10" s="53" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A61" s="47">
-        <v>55</v>
-      </c>
-      <c r="B61" s="54"/>
-      <c r="C61" s="47" t="s">
-        <v>165</v>
-      </c>
-      <c r="D61" s="47" t="s">
-        <v>1</v>
-      </c>
-      <c r="E61" s="49">
-        <v>43851</v>
-      </c>
-      <c r="F61" s="49">
-        <v>43851</v>
-      </c>
-      <c r="G61" s="47"/>
-      <c r="H61" s="47" t="s">
-        <v>162</v>
-      </c>
-      <c r="I61" s="42"/>
-      <c r="J61" s="47"/>
-    </row>
-    <row r="62" spans="1:10" s="53" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A62" s="47">
-        <v>58</v>
-      </c>
-      <c r="B62" s="54"/>
-      <c r="C62" s="47" t="s">
-        <v>166</v>
-      </c>
-      <c r="D62" s="47" t="s">
-        <v>1</v>
-      </c>
-      <c r="E62" s="49">
-        <v>43852</v>
-      </c>
-      <c r="F62" s="49">
-        <v>43852</v>
-      </c>
-      <c r="G62" s="47"/>
-      <c r="H62" s="47" t="s">
-        <v>162</v>
-      </c>
-      <c r="I62" s="42"/>
-      <c r="J62" s="42"/>
-    </row>
-    <row r="63" spans="1:10" s="53" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A63" s="47">
-        <v>59</v>
-      </c>
-      <c r="B63" s="54"/>
-      <c r="C63" s="47" t="s">
-        <v>171</v>
-      </c>
-      <c r="D63" s="47" t="s">
-        <v>1</v>
-      </c>
-      <c r="E63" s="49">
-        <v>43852</v>
-      </c>
-      <c r="F63" s="49">
-        <v>43852</v>
-      </c>
-      <c r="G63" s="47"/>
-      <c r="H63" s="47" t="s">
-        <v>162</v>
-      </c>
-      <c r="I63" s="42"/>
-      <c r="J63" s="42"/>
-    </row>
-    <row r="64" spans="1:10" s="53" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A64" s="47">
-        <v>60</v>
-      </c>
-      <c r="B64" s="54"/>
-      <c r="C64" s="47" t="s">
-        <v>179</v>
-      </c>
-      <c r="D64" s="47" t="s">
-        <v>1</v>
-      </c>
-      <c r="E64" s="49">
-        <v>43853</v>
-      </c>
-      <c r="F64" s="49">
-        <v>43853</v>
-      </c>
-      <c r="G64" s="47"/>
-      <c r="H64" s="47" t="s">
-        <v>162</v>
-      </c>
-      <c r="I64" s="42"/>
-      <c r="J64" s="42"/>
-    </row>
-    <row r="65" spans="1:10" s="53" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A65" s="47">
-        <v>61</v>
-      </c>
-      <c r="B65" s="54"/>
-      <c r="C65" s="47" t="s">
-        <v>173</v>
-      </c>
-      <c r="D65" s="47" t="s">
-        <v>1</v>
-      </c>
-      <c r="E65" s="49">
-        <v>43854</v>
-      </c>
-      <c r="F65" s="49">
-        <v>43854</v>
-      </c>
-      <c r="G65" s="47"/>
-      <c r="H65" s="47" t="s">
-        <v>162</v>
-      </c>
-      <c r="I65" s="42"/>
-      <c r="J65" s="42"/>
-    </row>
-    <row r="66" spans="1:10" s="53" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A66" s="47">
-        <v>62</v>
-      </c>
-      <c r="B66" s="54"/>
-      <c r="C66" s="47" t="s">
-        <v>178</v>
-      </c>
-      <c r="D66" s="47" t="s">
-        <v>1</v>
-      </c>
-      <c r="E66" s="49">
-        <v>43864</v>
-      </c>
-      <c r="F66" s="49">
-        <v>43864</v>
-      </c>
-      <c r="G66" s="47"/>
-      <c r="H66" s="47" t="s">
-        <v>162</v>
-      </c>
-      <c r="I66" s="42"/>
-      <c r="J66" s="42"/>
-    </row>
-    <row r="67" spans="1:10" s="53" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A67" s="47">
-        <v>63</v>
-      </c>
-      <c r="B67" s="54"/>
-      <c r="C67" s="47" t="s">
-        <v>172</v>
-      </c>
-      <c r="D67" s="47" t="s">
-        <v>1</v>
-      </c>
-      <c r="E67" s="49">
-        <v>43864</v>
-      </c>
-      <c r="F67" s="49">
-        <v>43864</v>
-      </c>
-      <c r="G67" s="47"/>
-      <c r="H67" s="47" t="s">
-        <v>162</v>
-      </c>
-      <c r="I67" s="42"/>
-      <c r="J67" s="42"/>
-    </row>
-    <row r="68" spans="1:10" s="53" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A68" s="47">
-        <v>65</v>
-      </c>
-      <c r="B68" s="54"/>
-      <c r="C68" s="41" t="s">
+      <c r="B84" s="46"/>
+      <c r="C84" s="41" t="s">
+        <v>167</v>
+      </c>
+      <c r="D84" s="41" t="s">
+        <v>1</v>
+      </c>
+      <c r="E84" s="43">
+        <v>43892</v>
+      </c>
+      <c r="F84" s="43">
+        <v>43896</v>
+      </c>
+      <c r="G84" s="41"/>
+      <c r="H84" s="41" t="s">
+        <v>159</v>
+      </c>
+      <c r="I84" s="41"/>
+      <c r="J84" s="41"/>
+    </row>
+    <row r="85" spans="1:10" s="45" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A85" s="41">
         <v>68</v>
       </c>
-      <c r="D68" s="46" t="s">
-        <v>1</v>
-      </c>
-      <c r="E68" s="50">
-        <v>43864</v>
-      </c>
-      <c r="F68" s="50">
-        <v>43864</v>
-      </c>
-      <c r="G68" s="46"/>
-      <c r="H68" s="46" t="s">
-        <v>31</v>
-      </c>
-      <c r="I68" s="41"/>
-      <c r="J68" s="41"/>
-    </row>
-    <row r="69" spans="1:10" s="53" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A69" s="47">
-        <v>66</v>
-      </c>
-      <c r="B69" s="54"/>
-      <c r="C69" s="47" t="s">
+      <c r="B85" s="46"/>
+      <c r="C85" s="41" t="s">
         <v>180</v>
       </c>
-      <c r="D69" s="47" t="s">
-        <v>1</v>
-      </c>
-      <c r="E69" s="49">
-        <v>43499</v>
-      </c>
-      <c r="F69" s="49">
-        <v>43524</v>
-      </c>
-      <c r="G69" s="47"/>
-      <c r="H69" s="47" t="s">
-        <v>162</v>
-      </c>
-      <c r="I69" s="42"/>
-      <c r="J69" s="47"/>
-    </row>
-    <row r="70" spans="1:10" s="53" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A70" s="47">
-        <v>67</v>
-      </c>
-      <c r="B70" s="54"/>
-      <c r="C70" s="47" t="s">
-        <v>170</v>
-      </c>
-      <c r="D70" s="47" t="s">
-        <v>1</v>
-      </c>
-      <c r="E70" s="49">
-        <v>43499</v>
-      </c>
-      <c r="F70" s="49">
-        <v>43524</v>
-      </c>
-      <c r="G70" s="47"/>
-      <c r="H70" s="47" t="s">
-        <v>162</v>
-      </c>
-      <c r="I70" s="47"/>
-      <c r="J70" s="47"/>
-    </row>
-    <row r="71" spans="1:10" s="53" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A71" s="47">
-        <v>68</v>
-      </c>
-      <c r="B71" s="54"/>
-      <c r="C71" s="47" t="s">
+      <c r="D85" s="41" t="s">
+        <v>1</v>
+      </c>
+      <c r="E85" s="43">
+        <v>43922</v>
+      </c>
+      <c r="F85" s="43">
+        <v>43929</v>
+      </c>
+      <c r="G85" s="41"/>
+      <c r="H85" s="41" t="s">
+        <v>159</v>
+      </c>
+      <c r="I85" s="41"/>
+      <c r="J85" s="41"/>
+    </row>
+    <row r="86" spans="1:10" s="45" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A86" s="41">
+        <v>69</v>
+      </c>
+      <c r="B86" s="46"/>
+      <c r="C86" s="40" t="s">
         <v>184</v>
       </c>
-      <c r="D71" s="47" t="s">
-        <v>1</v>
-      </c>
-      <c r="E71" s="49">
-        <v>43892</v>
-      </c>
-      <c r="F71" s="49">
-        <v>43896</v>
-      </c>
-      <c r="G71" s="47"/>
-      <c r="H71" s="47" t="s">
-        <v>162</v>
-      </c>
-      <c r="I71" s="47"/>
-      <c r="J71" s="47"/>
-    </row>
-    <row r="72" spans="1:10" s="53" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A72" s="47">
-        <v>69</v>
-      </c>
-      <c r="B72" s="55"/>
-      <c r="C72" s="46" t="s">
-        <v>183</v>
-      </c>
-      <c r="D72" s="46" t="s">
-        <v>1</v>
-      </c>
-      <c r="E72" s="50">
-        <v>43892</v>
-      </c>
-      <c r="F72" s="50">
-        <v>43896</v>
-      </c>
-      <c r="G72" s="46"/>
-      <c r="H72" s="46" t="s">
+      <c r="D86" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="E86" s="44">
+        <v>43922</v>
+      </c>
+      <c r="F86" s="44">
+        <v>43929</v>
+      </c>
+      <c r="G86" s="40"/>
+      <c r="H86" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="I72" s="46" t="s">
-        <v>151</v>
-      </c>
-      <c r="J72" s="46"/>
-    </row>
-    <row r="73" spans="1:10" s="53" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="47">
-        <v>53</v>
-      </c>
-      <c r="B73" s="52" t="s">
-        <v>181</v>
-      </c>
-      <c r="C73" s="47" t="s">
-        <v>67</v>
-      </c>
-      <c r="D73" s="47" t="s">
-        <v>1</v>
-      </c>
-      <c r="E73" s="49">
-        <v>43885</v>
-      </c>
-      <c r="F73" s="49">
-        <v>43885</v>
-      </c>
-      <c r="G73" s="47"/>
-      <c r="H73" s="47" t="s">
-        <v>23</v>
-      </c>
-      <c r="I73" s="47"/>
-      <c r="J73" s="47"/>
-    </row>
-    <row r="74" spans="1:10" s="53" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A74" s="47">
-        <v>54</v>
-      </c>
-      <c r="B74" s="54"/>
-      <c r="C74" s="47" t="s">
-        <v>164</v>
-      </c>
-      <c r="D74" s="47" t="s">
-        <v>1</v>
-      </c>
-      <c r="E74" s="49">
-        <v>43885</v>
-      </c>
-      <c r="F74" s="49">
-        <v>43886</v>
-      </c>
-      <c r="G74" s="47"/>
-      <c r="H74" s="47" t="s">
-        <v>162</v>
-      </c>
-      <c r="I74" s="47"/>
-      <c r="J74" s="47"/>
-    </row>
-    <row r="75" spans="1:10" s="53" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A75" s="47">
-        <v>55</v>
-      </c>
-      <c r="B75" s="54"/>
-      <c r="C75" s="47" t="s">
-        <v>165</v>
-      </c>
-      <c r="D75" s="47" t="s">
-        <v>1</v>
-      </c>
-      <c r="E75" s="49">
-        <v>43886</v>
-      </c>
-      <c r="F75" s="49">
-        <v>43886</v>
-      </c>
-      <c r="G75" s="47"/>
-      <c r="H75" s="47" t="s">
-        <v>162</v>
-      </c>
-      <c r="I75" s="42"/>
-      <c r="J75" s="47"/>
-    </row>
-    <row r="76" spans="1:10" s="53" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A76" s="47">
-        <v>58</v>
-      </c>
-      <c r="B76" s="54"/>
-      <c r="C76" s="47" t="s">
-        <v>166</v>
-      </c>
-      <c r="D76" s="47" t="s">
-        <v>1</v>
-      </c>
-      <c r="E76" s="49">
-        <v>43886</v>
-      </c>
-      <c r="F76" s="49">
-        <v>43886</v>
-      </c>
-      <c r="G76" s="47"/>
-      <c r="H76" s="47" t="s">
-        <v>162</v>
-      </c>
-      <c r="I76" s="42"/>
-      <c r="J76" s="42"/>
-    </row>
-    <row r="77" spans="1:10" s="53" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A77" s="47">
-        <v>59</v>
-      </c>
-      <c r="B77" s="54"/>
-      <c r="C77" s="47" t="s">
-        <v>171</v>
-      </c>
-      <c r="D77" s="47" t="s">
-        <v>1</v>
-      </c>
-      <c r="E77" s="49">
-        <v>43886</v>
-      </c>
-      <c r="F77" s="49">
-        <v>43886</v>
-      </c>
-      <c r="G77" s="47"/>
-      <c r="H77" s="47" t="s">
-        <v>162</v>
-      </c>
-      <c r="I77" s="42"/>
-      <c r="J77" s="42"/>
-    </row>
-    <row r="78" spans="1:10" s="53" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A78" s="47">
-        <v>60</v>
-      </c>
-      <c r="B78" s="54"/>
-      <c r="C78" s="47" t="s">
-        <v>186</v>
-      </c>
-      <c r="D78" s="47" t="s">
-        <v>1</v>
-      </c>
-      <c r="E78" s="49">
-        <v>43887</v>
-      </c>
-      <c r="F78" s="49">
-        <v>43887</v>
-      </c>
-      <c r="G78" s="47"/>
-      <c r="H78" s="47" t="s">
-        <v>162</v>
-      </c>
-      <c r="I78" s="42"/>
-      <c r="J78" s="42"/>
-    </row>
-    <row r="79" spans="1:10" s="53" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A79" s="47">
-        <v>61</v>
-      </c>
-      <c r="B79" s="54"/>
-      <c r="C79" s="47" t="s">
-        <v>173</v>
-      </c>
-      <c r="D79" s="47" t="s">
-        <v>1</v>
-      </c>
-      <c r="E79" s="49">
-        <v>43888</v>
-      </c>
-      <c r="F79" s="49">
-        <v>43888</v>
-      </c>
-      <c r="G79" s="47"/>
-      <c r="H79" s="47" t="s">
-        <v>162</v>
-      </c>
-      <c r="I79" s="42"/>
-      <c r="J79" s="42"/>
-    </row>
-    <row r="80" spans="1:10" s="53" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A80" s="47">
-        <v>62</v>
-      </c>
-      <c r="B80" s="54"/>
-      <c r="C80" s="47" t="s">
-        <v>187</v>
-      </c>
-      <c r="D80" s="47" t="s">
-        <v>1</v>
-      </c>
-      <c r="E80" s="49">
-        <v>43892</v>
-      </c>
-      <c r="F80" s="49">
-        <v>43893</v>
-      </c>
-      <c r="G80" s="47"/>
-      <c r="H80" s="47" t="s">
-        <v>162</v>
-      </c>
-      <c r="I80" s="42"/>
-      <c r="J80" s="42"/>
-    </row>
-    <row r="81" spans="1:10" s="53" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A81" s="47">
-        <v>63</v>
-      </c>
-      <c r="B81" s="54"/>
-      <c r="C81" s="47" t="s">
-        <v>172</v>
-      </c>
-      <c r="D81" s="47" t="s">
-        <v>1</v>
-      </c>
-      <c r="E81" s="49">
-        <v>43893</v>
-      </c>
-      <c r="F81" s="49">
-        <v>43893</v>
-      </c>
-      <c r="G81" s="47"/>
-      <c r="H81" s="47" t="s">
-        <v>162</v>
-      </c>
-      <c r="I81" s="42"/>
-      <c r="J81" s="42"/>
-    </row>
-    <row r="82" spans="1:10" s="53" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A82" s="47">
-        <v>65</v>
-      </c>
-      <c r="B82" s="54"/>
-      <c r="C82" s="41" t="s">
-        <v>68</v>
-      </c>
-      <c r="D82" s="46" t="s">
-        <v>1</v>
-      </c>
-      <c r="E82" s="50">
-        <v>43922</v>
-      </c>
-      <c r="F82" s="50">
-        <v>43929</v>
-      </c>
-      <c r="G82" s="46"/>
-      <c r="H82" s="46" t="s">
-        <v>31</v>
-      </c>
-      <c r="I82" s="41"/>
-      <c r="J82" s="41"/>
-    </row>
-    <row r="83" spans="1:10" s="53" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A83" s="47">
-        <v>66</v>
-      </c>
-      <c r="B83" s="54"/>
-      <c r="C83" s="47" t="s">
-        <v>188</v>
-      </c>
-      <c r="D83" s="47" t="s">
-        <v>1</v>
-      </c>
-      <c r="E83" s="49">
-        <v>43892</v>
-      </c>
-      <c r="F83" s="49">
-        <v>43896</v>
-      </c>
-      <c r="G83" s="47"/>
-      <c r="H83" s="47" t="s">
-        <v>162</v>
-      </c>
-      <c r="I83" s="42"/>
-      <c r="J83" s="47"/>
-    </row>
-    <row r="84" spans="1:10" s="53" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A84" s="47">
-        <v>67</v>
-      </c>
-      <c r="B84" s="54"/>
-      <c r="C84" s="47" t="s">
-        <v>170</v>
-      </c>
-      <c r="D84" s="47" t="s">
-        <v>1</v>
-      </c>
-      <c r="E84" s="49">
-        <v>43892</v>
-      </c>
-      <c r="F84" s="49">
-        <v>43896</v>
-      </c>
-      <c r="G84" s="47"/>
-      <c r="H84" s="47" t="s">
-        <v>162</v>
-      </c>
-      <c r="I84" s="47"/>
-      <c r="J84" s="47"/>
-    </row>
-    <row r="85" spans="1:10" s="53" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A85" s="47">
-        <v>68</v>
-      </c>
-      <c r="B85" s="54"/>
-      <c r="C85" s="47" t="s">
-        <v>185</v>
-      </c>
-      <c r="D85" s="47" t="s">
-        <v>1</v>
-      </c>
-      <c r="E85" s="49">
-        <v>43922</v>
-      </c>
-      <c r="F85" s="49">
-        <v>43929</v>
-      </c>
-      <c r="G85" s="47"/>
-      <c r="H85" s="47" t="s">
-        <v>162</v>
-      </c>
-      <c r="I85" s="47"/>
-      <c r="J85" s="47"/>
-    </row>
-    <row r="86" spans="1:10" s="53" customFormat="1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A86" s="47">
-        <v>69</v>
-      </c>
-      <c r="B86" s="54"/>
-      <c r="C86" s="46" t="s">
-        <v>189</v>
-      </c>
-      <c r="D86" s="46" t="s">
-        <v>1</v>
-      </c>
-      <c r="E86" s="50">
-        <v>43922</v>
-      </c>
-      <c r="F86" s="50">
-        <v>43929</v>
-      </c>
-      <c r="G86" s="46"/>
-      <c r="H86" s="46" t="s">
-        <v>20</v>
-      </c>
-      <c r="I86" s="46"/>
-      <c r="J86" s="46"/>
+      <c r="I86" s="40"/>
+      <c r="J86" s="40"/>
     </row>
     <row r="87" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="14">
         <v>76</v>
       </c>
-      <c r="B87" s="55"/>
+      <c r="B87" s="47"/>
       <c r="C87" s="15" t="s">
-        <v>69</v>
+        <v>187</v>
       </c>
       <c r="D87" s="14" t="s">
         <v>1</v>
@@ -3469,8 +3480,8 @@
       <c r="H87" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="I87" s="44" t="s">
-        <v>151</v>
+      <c r="I87" s="38" t="s">
+        <v>148</v>
       </c>
       <c r="J87" s="14"/>
     </row>
@@ -3479,10 +3490,10 @@
         <v>77</v>
       </c>
       <c r="B88" s="56" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C88" s="29" t="s">
-        <v>71</v>
+        <v>188</v>
       </c>
       <c r="D88" s="30" t="s">
         <v>1</v>
@@ -3491,16 +3502,16 @@
       <c r="F88" s="29"/>
       <c r="G88" s="29"/>
       <c r="H88" s="29"/>
-      <c r="I88" s="48"/>
+      <c r="I88" s="42"/>
       <c r="J88" s="29"/>
     </row>
     <row r="89" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A89" s="14">
         <v>78</v>
       </c>
-      <c r="B89" s="56"/>
+      <c r="B89" s="57"/>
       <c r="C89" s="29" t="s">
-        <v>72</v>
+        <v>189</v>
       </c>
       <c r="D89" s="30" t="s">
         <v>1</v>
@@ -3509,19 +3520,20 @@
       <c r="F89" s="29"/>
       <c r="G89" s="29"/>
       <c r="H89" s="29"/>
-      <c r="I89" s="48"/>
+      <c r="I89" s="42"/>
       <c r="J89" s="29"/>
     </row>
     <row r="90" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="B90" s="12" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C90" s="31" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="11">
+    <mergeCell ref="B88:B89"/>
     <mergeCell ref="B73:B87"/>
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="A2:J2"/>
@@ -3570,458 +3582,458 @@
   <sheetData>
     <row r="1" spans="1:9" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="E1" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="F1" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="G1" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="H1" s="5" t="s">
         <v>79</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="7">
         <v>1</v>
       </c>
-      <c r="B2" s="40" t="s">
-        <v>83</v>
+      <c r="B2" s="54" t="s">
+        <v>80</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E2" s="8" t="s">
         <v>14</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="7">
         <v>2</v>
       </c>
-      <c r="B3" s="40"/>
+      <c r="B3" s="54"/>
       <c r="C3" s="8" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="E3" s="8" t="s">
         <v>14</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="7">
         <v>3</v>
       </c>
-      <c r="B4" s="40"/>
+      <c r="B4" s="54"/>
       <c r="C4" s="8" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="E4" s="8" t="s">
         <v>14</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="12" x14ac:dyDescent="0.2">
       <c r="A5" s="7">
         <v>4</v>
       </c>
-      <c r="B5" s="40"/>
+      <c r="B5" s="54"/>
       <c r="C5" s="8" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="E5" s="8" t="s">
         <v>14</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="12" x14ac:dyDescent="0.2">
       <c r="A6" s="7">
         <v>5</v>
       </c>
-      <c r="B6" s="40" t="s">
-        <v>100</v>
+      <c r="B6" s="54" t="s">
+        <v>97</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="E6" s="8" t="s">
         <v>14</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="H6" s="8" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="7">
         <v>6</v>
       </c>
-      <c r="B7" s="40"/>
+      <c r="B7" s="54"/>
       <c r="C7" s="8" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="E7" s="8" t="s">
         <v>14</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="7">
         <v>7</v>
       </c>
-      <c r="B8" s="40" t="s">
-        <v>108</v>
+      <c r="B8" s="54" t="s">
+        <v>105</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="E8" s="8" t="s">
         <v>14</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="12" x14ac:dyDescent="0.2">
       <c r="A9" s="7">
         <v>9</v>
       </c>
-      <c r="B9" s="40"/>
+      <c r="B9" s="54"/>
       <c r="C9" s="8" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="E9" s="8" t="s">
         <v>14</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="7">
         <v>10</v>
       </c>
-      <c r="B10" s="40" t="s">
+      <c r="B10" s="54" t="s">
+        <v>112</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="E10" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="F10" s="8" t="s">
         <v>116</v>
       </c>
-      <c r="D10" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="E10" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="F10" s="8" t="s">
-        <v>119</v>
-      </c>
       <c r="G10" s="8" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="12" x14ac:dyDescent="0.2">
       <c r="A11" s="7">
         <v>11</v>
       </c>
-      <c r="B11" s="40"/>
+      <c r="B11" s="54"/>
       <c r="C11" s="8" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E11" s="8" t="s">
         <v>14</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="G11" s="8" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="H11" s="8" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="12" x14ac:dyDescent="0.2">
       <c r="A12" s="7"/>
-      <c r="B12" s="40"/>
+      <c r="B12" s="54"/>
       <c r="C12" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="G12" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="D12" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="E12" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="F12" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="G12" s="8" t="s">
-        <v>125</v>
-      </c>
       <c r="H12" s="8" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="7">
         <v>12</v>
       </c>
-      <c r="B13" s="40"/>
+      <c r="B13" s="54"/>
       <c r="C13" s="9" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="E13" s="8" t="s">
         <v>14</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="G13" s="8" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="H13" s="8" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="7">
         <v>13</v>
       </c>
-      <c r="B14" s="40" t="s">
-        <v>128</v>
+      <c r="B14" s="54" t="s">
+        <v>125</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="E14" s="8" t="s">
         <v>14</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="G14" s="8" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="H14" s="8" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="7">
         <v>14</v>
       </c>
-      <c r="B15" s="40"/>
+      <c r="B15" s="54"/>
       <c r="C15" s="8" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="G15" s="8" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="H15" s="8" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="7">
         <v>15</v>
       </c>
-      <c r="B16" s="40"/>
+      <c r="B16" s="54"/>
       <c r="C16" s="8" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="E16" s="8" t="s">
         <v>14</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="G16" s="8" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="H16" s="8" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="7">
         <v>16</v>
       </c>
-      <c r="B17" s="40" t="s">
+      <c r="B17" s="54" t="s">
+        <v>132</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="F17" s="8" t="s">
         <v>135</v>
       </c>
-      <c r="C17" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="D17" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="E17" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="F17" s="8" t="s">
-        <v>138</v>
-      </c>
       <c r="G17" s="8" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="H17" s="8" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="7">
         <v>17</v>
       </c>
-      <c r="B18" s="40"/>
+      <c r="B18" s="54"/>
       <c r="C18" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="F18" s="8" t="s">
         <v>139</v>
       </c>
-      <c r="D18" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="E18" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="F18" s="8" t="s">
-        <v>142</v>
-      </c>
       <c r="G18" s="8" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="H18" s="8" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>
